--- a/drafts/tables/TableXX_photo.xlsx
+++ b/drafts/tables/TableXX_photo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/p_meta/drafts/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218F940D-9FE0-244C-9EDA-2E6B870BE85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E653948-A826-F34A-A8F6-6F1B243A189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51760" yWindow="500" windowWidth="32460" windowHeight="17440" xr2:uid="{8C0274CA-637A-D549-8DE8-7F2B3B672490}"/>
+    <workbookView xWindow="5020" yWindow="1340" windowWidth="32460" windowHeight="17440" xr2:uid="{8C0274CA-637A-D549-8DE8-7F2B3B672490}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>variable</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>&gt;-0.001</t>
+  </si>
+  <si>
+    <t>estimate_se</t>
   </si>
 </sst>
 </file>
@@ -141,13 +144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,25 +486,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A491FF-591D-5142-A76B-95AF05C56DB3}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,23 +523,26 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -549,25 +557,29 @@
       <c r="E2" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="str">
+        <f>CONCATENATE(D2,"±",E2)</f>
+        <v>0.095±0.073</v>
+      </c>
+      <c r="G2" s="1">
         <v>1.3129999999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.189</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>-4.7E-2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.23799999999999999</v>
       </c>
-      <c r="J2" s="4" t="str">
-        <f>CONCATENATE("[",H2,", ",I2,"]")</f>
+      <c r="K2" s="2" t="str">
+        <f>CONCATENATE("[",I2,", ",J2,"]")</f>
         <v>[-0.047, 0.238]</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -578,25 +590,29 @@
       <c r="E3" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F19" si="0">CONCATENATE(D3,"±",E3)</f>
+        <v>0.083±0.083</v>
+      </c>
+      <c r="G3" s="1">
         <v>1.006</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.315</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.245</v>
       </c>
-      <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J19" si="0">CONCATENATE("[",H3,", ",I3,"]")</f>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K19" si="1">CONCATENATE("[",I3,", ",J3,"]")</f>
         <v>[-0.079, 0.245]</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -607,25 +623,29 @@
       <c r="E4" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.214±0.096</v>
+      </c>
+      <c r="G4" s="1">
         <v>2.2269999999999999</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H4" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I4" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.40200000000000002</v>
       </c>
-      <c r="J4" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[0.026, 0.402]</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -640,25 +660,29 @@
       <c r="E5" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.007±0.093</v>
+      </c>
+      <c r="G5" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.19</v>
       </c>
-      <c r="J5" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.175, 0.19]</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -669,25 +693,29 @@
       <c r="E6" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.115±0.072</v>
+      </c>
+      <c r="G6" s="1">
         <v>1.607</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.108</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.25600000000000001</v>
       </c>
-      <c r="J6" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.025, 0.256]</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -698,25 +726,29 @@
       <c r="E7" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.164±0.085</v>
+      </c>
+      <c r="G7" s="1">
         <v>1.9370000000000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.33100000000000002</v>
       </c>
-      <c r="J7" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.002, 0.331]</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -731,25 +763,29 @@
       <c r="E8" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.091±0.061</v>
+      </c>
+      <c r="G8" s="1">
         <v>1.502</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.13300000000000001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.20899999999999999</v>
       </c>
-      <c r="J8" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.028, 0.209]</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -760,25 +796,29 @@
       <c r="E9" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.177±0.079</v>
+      </c>
+      <c r="G9" s="1">
         <v>2.2480000000000002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.33200000000000002</v>
       </c>
-      <c r="J9" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[0.023, 0.332]</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -789,25 +829,29 @@
       <c r="E10" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.261±0.027</v>
+      </c>
+      <c r="G10" s="1">
         <v>9.6010000000000009</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.315</v>
       </c>
-      <c r="J10" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[0.208, 0.315]</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -822,25 +866,29 @@
       <c r="E11" s="1">
         <v>2E-3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.003±0.002</v>
+      </c>
+      <c r="G11" s="1">
         <v>1.6950000000000001</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>0.09</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J11" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[&gt;-0.001, 0.007]</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -851,25 +899,29 @@
       <c r="E12" s="1">
         <v>2E-3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;-0.001±0.002</v>
+      </c>
+      <c r="G12" s="1">
         <v>-0.29799999999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.004, 0.003]</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -880,25 +932,29 @@
       <c r="E13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.012±0.002</v>
+      </c>
+      <c r="G13" s="1">
         <v>5.2910000000000004</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="J13" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[0.007, 0.016]</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -913,25 +969,29 @@
       <c r="E14" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.057±0.118</v>
+      </c>
+      <c r="G14" s="1">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>0.629</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>-0.17399999999999999</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>0.28699999999999998</v>
       </c>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.174, 0.287]</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -942,25 +1002,29 @@
       <c r="E15" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.151±0.132</v>
+      </c>
+      <c r="G15" s="1">
         <v>1.1419999999999999</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>0.253</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>-0.108</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>0.40899999999999997</v>
       </c>
-      <c r="J15" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.108, 0.409]</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -971,25 +1035,29 @@
       <c r="E16" s="1">
         <v>0.189</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.124±0.189</v>
+      </c>
+      <c r="G16" s="1">
         <v>0.65600000000000003</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>0.51200000000000001</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>-0.246</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>0.49399999999999999</v>
       </c>
-      <c r="J16" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.246, 0.494]</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
@@ -1004,25 +1072,29 @@
       <c r="E17" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.194±0.132</v>
+      </c>
+      <c r="G17" s="1">
         <v>1.4690000000000001</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>0.45200000000000001</v>
       </c>
-      <c r="J17" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.065, 0.452]</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -1033,25 +1105,29 @@
       <c r="E18" s="1">
         <v>0.182</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.171±0.182</v>
+      </c>
+      <c r="G18" s="1">
         <v>0.93899999999999995</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>-0.52800000000000002</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>0.186</v>
       </c>
-      <c r="J18" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.528, 0.186]</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -1062,30 +1138,29 @@
       <c r="E19" s="1">
         <v>0.182</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.053±0.182</v>
+      </c>
+      <c r="G19" s="1">
         <v>-0.29099999999999998</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>0.77100000000000002</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>-0.41099999999999998</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="J19" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.411, 0.304]</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -1093,6 +1168,11 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
